--- a/Documentatie Fifa/Logboek.xlsx
+++ b/Documentatie Fifa/Logboek.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dion\Desktop\Radius\Periode 2\HANOI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\P4\FifaCsharp\Documentatie Fifa\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Datum</t>
   </si>
@@ -35,52 +35,37 @@
     <t>Aantal weken gewerkt</t>
   </si>
   <si>
-    <t>4 weken</t>
-  </si>
-  <si>
     <t>Totaal aantal uren gewerkt Dion</t>
   </si>
   <si>
     <t>Totaal aantal uren gewerkt</t>
   </si>
   <si>
-    <t>Aantal uren gewerkt Bjorn</t>
-  </si>
-  <si>
-    <t>Totaal aantal uren gewerkt Bjorn</t>
-  </si>
-  <si>
     <t>Opmerkingen van de dag</t>
   </si>
   <si>
-    <t>samenwerkingscontrsct, logboek , bereikbaarheidslijst, taakverdeling</t>
-  </si>
-  <si>
-    <t>Aantal uren gewerkt JP</t>
-  </si>
-  <si>
-    <t>Totaal aantal uren gewerkt JP</t>
-  </si>
-  <si>
-    <t>C# hanoi afgemaakt.</t>
-  </si>
-  <si>
-    <t>Powerpoint, fine tuning code, technische test</t>
-  </si>
-  <si>
-    <t>technische test, fine tuning code</t>
-  </si>
-  <si>
-    <t>Powepoint af en technische test, PSD verbeterd</t>
-  </si>
-  <si>
-    <t>Alles afgerond</t>
+    <t>Aantal uren gewerkt Tim</t>
+  </si>
+  <si>
+    <t>Aantal uren gewerkt Kutay</t>
+  </si>
+  <si>
+    <t>Aantal uren gewerkt Lex</t>
+  </si>
+  <si>
+    <t>Totaal aantal uren gewerkt Tim</t>
+  </si>
+  <si>
+    <t>Totaal aantal uren gewerkt Kutay</t>
+  </si>
+  <si>
+    <t>Totaal aantal uren gewerkt Lex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -453,353 +438,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="66.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>42695</v>
-      </c>
-      <c r="B2" s="4">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>42696</v>
-      </c>
-      <c r="B3" s="4">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42843</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>42697</v>
+        <v>42844</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>42698</v>
+        <v>42845</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>42699</v>
+        <v>42846</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>42700</v>
-      </c>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>42701</v>
+        <v>42856</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>42702</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9">
+        <v>42857</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>42858</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>42859</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>42863</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>42864</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>42865</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>42866</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>42867</v>
+      </c>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>42870</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>42871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>42872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>42873</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>42874</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>42877</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>42878</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>42879</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>42884</v>
+      </c>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>42885</v>
+      </c>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>42886</v>
+      </c>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>42887</v>
+      </c>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>42888</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>42892</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>42893</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>42894</v>
+      </c>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>42895</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>42898</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>42899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>42900</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>42901</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>42902</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4">
+        <f>SUM(B3:B44)</f>
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>42703</v>
-      </c>
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>42704</v>
-      </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>42705</v>
-      </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>42706</v>
-      </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>42707</v>
-      </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>42708</v>
-      </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>42709</v>
-      </c>
-      <c r="B16" s="4">
+      <c r="C47">
+        <f>SUM(C3:C44)</f>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>SUM(D3:D44)</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>SUM(E3:E44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>42710</v>
-      </c>
-      <c r="B17" s="4">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>42711</v>
-      </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>42712</v>
-      </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>42713</v>
-      </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>42714</v>
-      </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>42715</v>
-      </c>
-      <c r="B22" s="4">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>42716</v>
-      </c>
-      <c r="B23" s="4">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>42717</v>
-      </c>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>42717</v>
-      </c>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>42718</v>
-      </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>42719</v>
-      </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>42720</v>
-      </c>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>42721</v>
-      </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>42722</v>
-      </c>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>42723</v>
-      </c>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>42724</v>
-      </c>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>42725</v>
-      </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="4">
-        <f>SUM(B2:B33)</f>
-        <v>38</v>
-      </c>
-      <c r="C36">
-        <f>SUM(C2:C33)</f>
-        <v>28</v>
-      </c>
-      <c r="D36">
-        <f>SUM(D2:D33)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f>SUM(B36:C36:D36)</f>
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie Fifa/Logboek.xlsx
+++ b/Documentatie Fifa/Logboek.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\P4\FifaCsharp\Documentatie Fifa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dion Rodie\Desktop\Radius\Projects\Csharpfifa\FifaCsharp\Documentatie Fifa\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Datum</t>
   </si>
@@ -60,12 +60,15 @@
   </si>
   <si>
     <t>Totaal aantal uren gewerkt Lex</t>
+  </si>
+  <si>
+    <t>Tim heeft moeite met mee komen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -438,22 +441,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.5234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="30.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,226 +476,239 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>42843</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>42844</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>42845</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>42846</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>42856</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>42857</v>
       </c>
       <c r="B9" s="4"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>42858</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>42859</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>42863</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>42864</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>42865</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>42866</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
         <v>42867</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
         <v>42870</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
         <v>42871</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
         <v>42872</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
         <v>42873</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
         <v>42874</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
         <v>42877</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3">
         <v>42878</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3">
         <v>42879</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3">
         <v>42884</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3">
         <v>42885</v>
       </c>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3">
         <v>42886</v>
       </c>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3">
         <v>42887</v>
       </c>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3">
         <v>42888</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
         <v>42892</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3">
         <v>42893</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3">
         <v>42894</v>
       </c>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3">
         <v>42895</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3">
         <v>42898</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3">
         <v>42899</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3">
         <v>42901</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3">
         <v>42902</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -709,28 +725,34 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3"/>
       <c r="B47" s="4">
         <f>SUM(B3:B44)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <f>SUM(C3:C44)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <f>SUM(D3:D44)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E47">
         <f>SUM(E3:E44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <f>SUM(B47:E47)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
